--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_f2_232.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_f2_232.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N555"/>
+  <dimension ref="A1:N556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3043110370635986</v>
+        <v>0.4414389133453369</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00098419189453125</v>
+        <v>0.001485824584960938</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04420113563537598</v>
+        <v>0.0694420337677002</v>
       </c>
     </row>
     <row r="8">
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0.07149350602135963</v>
+        <v>0.0714813817509056</v>
       </c>
     </row>
     <row r="550">
@@ -4309,116 +4309,126 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>9846.30138351379</v>
+        <v>10100.70138351379</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>13</v>
+        <v>0.9992198293761888</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>366</v>
+        <v>13</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>3</v>
+        <v>525</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0.3697829246520996</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>0.5405697822570801</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B555" t="inlineStr">
+      <c r="B556" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C555" t="inlineStr">
+      <c r="C556" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D555" t="inlineStr">
+      <c r="D556" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E555" t="inlineStr">
+      <c r="E556" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F555" t="inlineStr">
+      <c r="F556" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G555" t="inlineStr">
+      <c r="G556" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
+      <c r="H556" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I555" t="inlineStr">
+      <c r="I556" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J555" t="inlineStr">
+      <c r="J556" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K555" t="inlineStr">
+      <c r="K556" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L555" t="inlineStr">
+      <c r="L556" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M555" t="inlineStr">
+      <c r="M556" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N555" t="inlineStr">
+      <c r="N556" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_f2_232.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_f2_232.qasm_rb2_archsize3_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4414389133453369</v>
+        <v>0.001343011856079102</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001485824584960938</v>
+        <v>0.0005841255187988281</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0694420337677002</v>
+        <v>0.07833194732666016</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 0), (0, 1), (1, 2), (2, 1), (2, 2), (1, 0), (0, 2), (1, 1)]</t>
+          <t>[[2, 0], [0, 1], [1, 2], [2, 1], [2, 2], [1, 0], [0, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>[(2, 2), (1, 0), (1, 1), (1, 2), (0, 1), (2, 1), (2, 0), (0, 0)]</t>
+          <t>[[2, 2], [1, 0], [1, 1], [1, 2], [0, 1], [2, 1], [2, 0], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>[(2, 0), (1, 2), (1, 1), (2, 1), (1, 0), (0, 1), (0, 2), (0, 0)]</t>
+          <t>[[2, 0], [1, 2], [1, 1], [2, 1], [1, 0], [0, 1], [0, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0.5405697822570801</v>
+        <v>0.1096291542053223</v>
       </c>
     </row>
     <row r="556">
